--- a/supports/Parliament Constituencies.xlsx
+++ b/supports/Parliament Constituencies.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
